--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E9"/>
+  <dimension ref="B4:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -470,6 +470,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>445328338</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="B4:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>015 855 755/ 085 855 755</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +487,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>786962712</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>948958115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>Phsar Touch</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E12"/>
+  <dimension ref="B4:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,10 +506,21 @@
         <v>948958115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>696195970</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Phsar Touch</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E13"/>
+  <dimension ref="B4:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +526,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>324094872</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/docs/Book1.xlsx
+++ b/docs/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E14"/>
+  <dimension ref="B4:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,8 +540,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>631495555</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>